--- a/SmokeDetector/utils/power_calculations.xlsx
+++ b/SmokeDetector/utils/power_calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,8 +91,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -105,15 +107,17 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,7 +450,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -489,7 +493,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -505,20 +509,20 @@
       </c>
       <c r="G2">
         <f>B2*C2+(A2-B2)*D2</f>
-        <v>2.9939999999999998</v>
+        <v>7.7939999999999996</v>
       </c>
       <c r="H2">
         <f>E2*3600/G2</f>
-        <v>120240.48096192385</v>
+        <v>46189.376443418019</v>
       </c>
       <c r="I2">
         <f>H2*A2/3600/24</f>
-        <v>83.500334001336</v>
+        <v>160.3797793174237</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>3600</v>
+        <v>300</v>
       </c>
       <c r="B3">
         <v>0.3</v>
@@ -534,43 +538,73 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G42" si="0">B3*C3+(A3-B3)*D3</f>
-        <v>37.796999999999997</v>
+        <v>4.7969999999999997</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H42" si="1">E3*3600/G3</f>
-        <v>9524.5654417017231</v>
+        <v>75046.904315196996</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I42" si="2">H3*A3/3600/24</f>
-        <v>396.85689340423846</v>
+        <v>260.57952887221182</v>
       </c>
     </row>
     <row r="4" spans="1:9">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.2984999999999998</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>109140.51841746249</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>378.96013339396694</v>
       </c>
     </row>
     <row r="5" spans="1:9">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>0.3</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1E-3</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.0996999999999999</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>171453.06472353195</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>595.32314140115261</v>
       </c>
     </row>
     <row r="6" spans="1:9">

--- a/SmokeDetector/utils/power_calculations.xlsx
+++ b/SmokeDetector/utils/power_calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,8 +91,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -107,17 +113,23 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,7 +462,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -664,59 +676,119 @@
       </c>
     </row>
     <row r="10" spans="1:9">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>0.3</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>0.02</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.9939999999999998</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>120240.48096192385</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>83.500334001336</v>
       </c>
     </row>
     <row r="11" spans="1:9">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>0.3</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>0.01</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.3969999999999998</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>150187.73466833544</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>104.29703796412184</v>
       </c>
     </row>
     <row r="12" spans="1:9">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.0985</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>171551.10793423874</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>119.13271384322134</v>
       </c>
     </row>
     <row r="13" spans="1:9">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>0.3</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>1E-3</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.8596999999999999</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>193579.60961445395</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>134.43028445448192</v>
       </c>
     </row>
     <row r="14" spans="1:9">

--- a/SmokeDetector/utils/power_calculations.xlsx
+++ b/SmokeDetector/utils/power_calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19300" tabRatio="500"/>
+    <workbookView xWindow="13020" yWindow="3720" windowWidth="36800" windowHeight="20080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,8 +91,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -113,7 +129,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -122,6 +138,14 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -130,6 +154,14 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -462,7 +494,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -634,45 +666,90 @@
       </c>
     </row>
     <row r="7" spans="1:9">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0.02</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>B7*C7+(A7-B7)*D7</f>
+        <v>2.9939999999999998</v>
+      </c>
+      <c r="H7">
+        <f>E7*3600/G7</f>
+        <v>120240.48096192385</v>
+      </c>
+      <c r="I7">
+        <f>H7*A7/3600/24</f>
+        <v>83.500334001336</v>
       </c>
     </row>
     <row r="8" spans="1:9">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0.01</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>B8*C8+(A8-B8)*D8</f>
+        <v>2.3969999999999998</v>
+      </c>
+      <c r="H8">
+        <f>E8*3600/G8</f>
+        <v>150187.73466833544</v>
+      </c>
+      <c r="I8">
+        <f>H8*A8/3600/24</f>
+        <v>104.29703796412184</v>
       </c>
     </row>
     <row r="9" spans="1:9">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>0.3</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>B9*C9+(A9-B9)*D9</f>
+        <v>2.0985</v>
+      </c>
+      <c r="H9">
+        <f>E9*3600/G9</f>
+        <v>171551.10793423874</v>
+      </c>
+      <c r="I9">
+        <f>H9*A9/3600/24</f>
+        <v>119.13271384322134</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -686,56 +763,41 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>0.02</v>
+        <v>1E-3</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>2.9939999999999998</v>
+        <f>B10*C10+(A10-B10)*D10</f>
+        <v>1.8596999999999999</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>120240.48096192385</v>
+        <f>E10*3600/G10</f>
+        <v>193579.60961445395</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
-        <v>83.500334001336</v>
+        <f>H10*A10/3600/24</f>
+        <v>134.43028445448192</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11">
-        <v>60</v>
-      </c>
-      <c r="B11">
-        <v>0.3</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>0.01</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>2.3969999999999998</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>150187.73466833544</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>104.29703796412184</v>
+        <f>B11*C11+(A11-B11)*D11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" t="e">
+        <f>E11*3600/G11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" t="e">
+        <f>H11*A11/3600/24</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>0.3</v>
@@ -744,27 +806,27 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="E12">
         <v>100</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>2.0985</v>
+        <f>B12*C12+(A12-B12)*D12</f>
+        <v>1.8939999999999999</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>171551.10793423874</v>
+        <f>E12*3600/G12</f>
+        <v>190073.9176346357</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
-        <v>119.13271384322134</v>
+        <f>H12*A12/3600/24</f>
+        <v>10.999648011263639</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>0.3</v>
@@ -773,123 +835,213 @@
         <v>6</v>
       </c>
       <c r="D13">
+        <v>0.01</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <f>B13*C13+(A13-B13)*D13</f>
+        <v>1.8469999999999998</v>
+      </c>
+      <c r="H13">
+        <f>E13*3600/G13</f>
+        <v>194910.66594477533</v>
+      </c>
+      <c r="I13">
+        <f>H13*A13/3600/24</f>
+        <v>11.279552427359683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>0.3</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <f>B14*C14+(A14-B14)*D14</f>
+        <v>1.8234999999999999</v>
+      </c>
+      <c r="H14">
+        <f>E14*3600/G14</f>
+        <v>197422.53907321088</v>
+      </c>
+      <c r="I14">
+        <f>H14*A14/3600/24</f>
+        <v>11.42491545562563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0.3</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
         <v>1E-3</v>
       </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>1.8596999999999999</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>193579.60961445395</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
-        <v>134.43028445448192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="E15">
+        <v>100</v>
+      </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>B15*C15+(A15-B15)*D15</f>
+        <v>1.8046999999999997</v>
+      </c>
+      <c r="H15">
+        <f>E15*3600/G15</f>
+        <v>199479.13780683774</v>
+      </c>
+      <c r="I15">
+        <f>H15*A15/3600/24</f>
+        <v>11.543931586043849</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f>B16*C16+(A16-B16)*D16</f>
         <v>0</v>
       </c>
       <c r="H16" t="e">
-        <f t="shared" si="1"/>
+        <f>E16*3600/G16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I16" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9">
+        <f>H16*A16/3600/24</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.3</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>0.02</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9">
+        <f>B17*C17+(A17-B17)*D17</f>
+        <v>1.8139999999999998</v>
+      </c>
+      <c r="H17">
+        <f>E17*3600/G17</f>
+        <v>198456.44983461965</v>
+      </c>
+      <c r="I17">
+        <f>H17*A17/3600/24</f>
+        <v>2.2969496508636533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0.3</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>0.01</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9">
+        <f>B18*C18+(A18-B18)*D18</f>
+        <v>1.8069999999999997</v>
+      </c>
+      <c r="H18">
+        <f>E18*3600/G18</f>
+        <v>199225.23519645826</v>
+      </c>
+      <c r="I18">
+        <f>H18*A18/3600/24</f>
+        <v>2.3058476295886372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0.3</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9">
+        <v>1.8034999999999999</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>199611.86581646799</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>2.3103225210239349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.3</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>1E-3</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="7:9">
+        <v>1.8006999999999997</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>199922.2524573777</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>2.3139149589974273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="G21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -903,7 +1055,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="7:9">
+    <row r="22" spans="1:9">
       <c r="G22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -917,7 +1069,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="7:9">
+    <row r="23" spans="1:9">
       <c r="G23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -931,7 +1083,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="7:9">
+    <row r="24" spans="1:9">
       <c r="G24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -945,7 +1097,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="7:9">
+    <row r="25" spans="1:9">
       <c r="G25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -959,7 +1111,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="7:9">
+    <row r="26" spans="1:9">
       <c r="G26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -973,7 +1125,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="7:9">
+    <row r="27" spans="1:9">
       <c r="G27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -987,7 +1139,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="7:9">
+    <row r="28" spans="1:9">
       <c r="G28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1001,7 +1153,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="7:9">
+    <row r="29" spans="1:9">
       <c r="G29">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1015,7 +1167,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="7:9">
+    <row r="30" spans="1:9">
       <c r="G30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1029,7 +1181,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="7:9">
+    <row r="31" spans="1:9">
       <c r="G31">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1043,7 +1195,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="7:9">
+    <row r="32" spans="1:9">
       <c r="G32">
         <f t="shared" si="0"/>
         <v>0</v>
